--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638427.5346322809</v>
+        <v>639211.6805703097</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.82923804496935</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>153.2418220378557</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>19.09345814857096</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W6" t="n">
-        <v>19.84004947482878</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,61 +1132,61 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>90.87689320356449</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>105.3690580549764</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>152.9223778540328</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>152.6562894669719</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1509,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
@@ -1622,10 +1624,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>69.4494529617582</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>74.13778888819968</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1847,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1859,13 +1861,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>110.8283177867685</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>15.87894234389537</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.8814522403791</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2324,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>54.82907102477792</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>50.46697834767983</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2597,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>31.59085779163133</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>47.80876671705467</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,43 +2727,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,67 +2800,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50692648100205</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>70.64856914772007</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>139.0443297585467</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3278,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>17.37254956828075</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>49.97434669336922</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>87.39448298874188</v>
       </c>
       <c r="C39" t="n">
-        <v>156.4232302292953</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0201173812374</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>14.69006202085835</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,14 +3979,14 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>19.20171008547518</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4119,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>81.13095251577728</v>
       </c>
     </row>
     <row r="46">
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4331,7 +4333,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
         <v>176.2910403306274</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.8643249431123</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C3" t="n">
-        <v>220.8643249431123</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D3" t="n">
-        <v>220.8643249431123</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>428.4581072040016</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y3" t="n">
-        <v>220.8643249431123</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4512,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4598,13 +4600,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
         <v>639.2227743377304</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4680,16 +4682,16 @@
         <v>412.2910008509983</v>
       </c>
       <c r="V6" t="n">
-        <v>204.697218590109</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.8288664974407</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.0442035175087</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>513.308066045118</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5127,16 +5129,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>566.7035761171468</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>566.7035761171468</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>566.7035761171468</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>566.7035761171468</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>566.7035761171468</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X12" t="n">
-        <v>359.1097938562575</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>129.8105631474831</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="D15" t="n">
-        <v>129.8105631474831</v>
+        <v>498.6839388107434</v>
       </c>
       <c r="E15" t="n">
-        <v>129.8105631474831</v>
+        <v>339.4464838052879</v>
       </c>
       <c r="F15" t="n">
-        <v>129.8105631474831</v>
+        <v>339.4464838052879</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>200.7156583879034</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>87.3465227954827</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
         <v>366.5706756325438</v>
@@ -5385,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5495,22 +5497,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F17" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="E17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="F17" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>852.1093597664257</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>677.6563304852987</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>471.2443511720524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.8669524321267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>144.4139231509997</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>318.8669524321267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.8669524321267</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>75.41817578802664</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>304.5465265007123</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C27" t="n">
-        <v>304.5465265007123</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D27" t="n">
-        <v>304.5465265007123</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>51.1911004754969</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>915.7654719580557</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>915.7654719580557</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>915.7654719580557</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>680.6133637263131</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>680.6133637263131</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>472.7618635207803</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>472.7618635207803</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
         <v>829.5248650203655</v>
@@ -6409,25 +6411,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>199.5730239624919</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>86.20388837007123</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>892.6949644523331</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>690.5083698110992</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>462.2847515474883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="31">
@@ -6728,19 +6730,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>650.1909930233792</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U33" t="n">
-        <v>421.9673747597683</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V33" t="n">
-        <v>421.9673747597683</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>178.5185981156682</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>178.5185981156682</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>183.363730950278</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="C36" t="n">
-        <v>183.363730950278</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D36" t="n">
-        <v>183.363730950278</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="W36" t="n">
-        <v>391.2152311558108</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="X36" t="n">
-        <v>183.363730950278</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="Y36" t="n">
-        <v>183.363730950278</v>
+        <v>638.9911434400805</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D41" t="n">
         <v>639.2227743377304</v>
@@ -7415,46 +7417,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7515,22 +7517,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y42" t="n">
         <v>16.44142755506243</v>
@@ -7588,25 +7590,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="X43" t="n">
         <v>16.44142755506243</v>
@@ -7625,19 +7627,19 @@
         <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
         <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
         <v>28.51141680214578</v>
@@ -7667,10 +7669,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
         <v>651.2927635848137</v>
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,46 +7733,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>224.7893424687375</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7837,16 +7839,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,19 +8777,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11148,10 +11150,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>188.7109832972316</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.9437471585081</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>52.44087373944865</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22838,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,13 +22922,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>231.8549336860908</v>
+        <v>232.6015250123486</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23072,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23087,7 +23089,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>21.35855103293197</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>100.313637722328</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>4.722702601368098</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.02688163686591</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23397,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
@@ -23510,10 +23512,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>19.94717988965688</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>177.5571942727199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23735,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23747,13 +23749,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>55.70486586309889</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>216.9216448055299</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>23.56361332425966</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>57.40637321171855</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>100.9443125299447</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>304.2160632730031</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24485,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24527,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>57.80577505978375</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>123.8744043867831</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,22 +24688,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>23.88970637041302</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>101.0346019561178</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>61.12039893627494</v>
+        <v>88.9896173806811</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>214.9666412263055</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>140.2725308871202</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1903820014524</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>79.13870066112545</v>
       </c>
       <c r="C39" t="n">
-        <v>16.28526875902048</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>183.6536234539904</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>190.992633756446</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6847310553635</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,13 +25867,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>189.8183595007702</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>91.82261996669851</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>124.5517432615271</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441925.4538059936</v>
+        <v>441925.4538059937</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465488.0628680183</v>
+        <v>465488.0628680182</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465488.0628680182</v>
+        <v>465488.0628680183</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465488.0628680183</v>
+        <v>465488.0628680184</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465488.0628680183</v>
+        <v>465488.0628680184</v>
       </c>
     </row>
     <row r="12">
@@ -26317,7 +26319,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="D2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="E2" t="n">
         <v>141981.8776514384</v>
@@ -26332,7 +26334,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="I2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
         <v>149544.6052781992</v>
@@ -26350,7 +26352,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="O2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
         <v>141981.8776514384</v>
@@ -26421,7 +26423,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="D4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
@@ -26430,28 +26432,28 @@
         <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
         <v>31909.3965941043</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4924.36046620315</v>
+        <v>-4924.360466203179</v>
       </c>
       <c r="C6" t="n">
-        <v>63949.39611548664</v>
+        <v>63949.39611548666</v>
       </c>
       <c r="D6" t="n">
-        <v>63949.39611548661</v>
+        <v>63949.39611548669</v>
       </c>
       <c r="E6" t="n">
-        <v>97576.99611548669</v>
+        <v>97576.99611548666</v>
       </c>
       <c r="F6" t="n">
-        <v>97576.99611548669</v>
+        <v>97576.99611548666</v>
       </c>
       <c r="G6" t="n">
-        <v>91512.04675601271</v>
+        <v>91512.04675601269</v>
       </c>
       <c r="H6" t="n">
         <v>101241.0897301798</v>
@@ -26543,7 +26545,7 @@
         <v>101241.0897301798</v>
       </c>
       <c r="J6" t="n">
-        <v>47468.57883997036</v>
+        <v>47468.57883997035</v>
       </c>
       <c r="K6" t="n">
         <v>101241.0897301798</v>
@@ -26558,7 +26560,7 @@
         <v>101241.0897301798</v>
       </c>
       <c r="O6" t="n">
-        <v>97576.9961154866</v>
+        <v>97576.99611548663</v>
       </c>
       <c r="P6" t="n">
         <v>97576.99611548669</v>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34781,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>99.8112771299739</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37783,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37868,10 +37870,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639211.6805703097</v>
+        <v>534979.1823068664</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>130.5340249893193</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.2418220378557</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>19.09345814857096</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>90.87689320356449</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
+        <v>80.11569190233639</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,14 +1372,14 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>152.9223778540328</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>86.80093154293684</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,20 +1615,20 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,22 +1694,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>69.4494529617582</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>53.58224586337646</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.8283177867685</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>152.363009831363</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,14 +2326,14 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,70 +2475,70 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -2611,7 +2611,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,22 +2642,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>31.59085779163133</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>86.30057329478495</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,11 +2791,11 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50692648100205</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>111.1751113141405</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,55 +3283,55 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>49.97434669336922</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3444,49 +3444,49 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,17 +3505,17 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.19305615617957</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.39448298874188</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,49 +3675,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3878,16 +3878,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>97.83533088294783</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>81.13095251577728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4333,49 +4333,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>245.4092504478133</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.81546818692397</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.0663215028962</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C3" t="n">
-        <v>324.6132922217692</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D3" t="n">
-        <v>175.6788825605179</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>287.0248034667088</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G3" t="n">
         <v>16.44142755506243</v>
@@ -4418,16 +4418,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4454,7 +4454,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y3" t="n">
-        <v>667.2816585229643</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4530,10 +4530,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4579,10 +4579,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
         <v>435.9652341458732</v>
@@ -4676,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>393.0046794888054</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4807,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4834,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="U8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="V8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="W8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4886,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5047,46 +5047,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>513.308066045118</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C12" t="n">
-        <v>513.308066045118</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>513.308066045118</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5129,43 +5129,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="W12" t="n">
-        <v>513.308066045118</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="X12" t="n">
-        <v>513.308066045118</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="Y12" t="n">
-        <v>513.308066045118</v>
+        <v>324.6132922217692</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5290,40 +5290,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>599.7325600629764</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>425.2795307818494</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6839388107434</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="E15" t="n">
-        <v>339.4464838052879</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="F15" t="n">
-        <v>339.4464838052879</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G15" t="n">
-        <v>200.7156583879034</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>87.3465227954827</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5399,10 +5399,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>767.9478970830444</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>767.9478970830444</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5469,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>852.1093597664257</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C18" t="n">
-        <v>677.6563304852987</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D18" t="n">
-        <v>528.7219208240474</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="E18" t="n">
-        <v>369.484465818592</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="19">
@@ -5706,16 +5706,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5837,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5949,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4946457291688</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="C27" t="n">
-        <v>313.4946457291688</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D27" t="n">
-        <v>164.5602360679176</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E27" t="n">
-        <v>164.5602360679176</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F27" t="n">
-        <v>164.5602360679176</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>164.5602360679176</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>51.1911004754969</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>876.8848592532777</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>674.6982646120437</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>674.6982646120437</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>674.6982646120437</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>674.6982646120437</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>674.6982646120437</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>466.9379658470897</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.7568786610034</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3038493798764</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3038493798764</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E30" t="n">
-        <v>338.3038493798764</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F30" t="n">
-        <v>338.3038493798764</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5730239624919</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>86.20388837007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6548,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="31">
@@ -6645,16 +6645,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6885,16 +6885,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6919,16 +6919,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,25 +6958,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
         <v>506.1786963984129</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>638.9911434400805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>638.9911434400805</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>638.9911434400805</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>638.9911434400805</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>638.9911434400805</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>638.9911434400805</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>638.9911434400805</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.0360370837871</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>30.58726043968704</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D38" t="n">
-        <v>30.58726043968704</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E38" t="n">
-        <v>30.58726043968704</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F38" t="n">
-        <v>30.58726043968704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G38" t="n">
-        <v>30.58726043968704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H38" t="n">
-        <v>30.58726043968704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I38" t="n">
-        <v>30.58726043968704</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0360370837871</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N42" t="n">
         <v>435.9652341458732</v>
-      </c>
-      <c r="N42" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7526,13 +7526,13 @@
         <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>238.8736563016672</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W42" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X42" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
         <v>16.44142755506243</v>
@@ -7590,25 +7590,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7663,37 +7663,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7730,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="46">
@@ -7842,13 +7842,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8777,10 +8777,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8938,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9485,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,10 +9728,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11311,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>230.174158102173</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11393,7 +11393,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>333.52274139514</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,19 +22628,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>14.5351874040646</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.44087373944865</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>334.1218923309199</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>232.6015250123486</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23117,10 +23117,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>21.35855103293197</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23162,10 +23162,10 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>171.5792912585832</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23314,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.722702601368098</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>145.9996556064884</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034424</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,22 +23582,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.94717988965688</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>152.190739340101</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55.70486586309889</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.5331376713707</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23867,13 +23867,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>279.5921429795728</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>99.3319733295566</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>100.9443125299447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,22 +24530,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>57.80577505978375</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>85.38259780905287</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>115.926505328586</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>23.88970637041302</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25046,16 +25046,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>88.9896173806811</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266928</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>150.1903820014524</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7562331984329429</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79.13870066112545</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25678,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25766,16 +25766,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.992633756446</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897702</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>68.69785276691951</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25994,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>124.5517432615271</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441925.4538059936</v>
+        <v>441925.4538059937</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441925.4538059937</v>
+        <v>441925.4538059936</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465488.0628680184</v>
+        <v>465488.0628680183</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465488.0628680182</v>
+        <v>465488.0628680183</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465488.0628680184</v>
+        <v>465488.0628680183</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465488.0628680184</v>
+        <v>465488.0628680183</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441925.4538059937</v>
+        <v>441925.4538059936</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="C2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514383</v>
       </c>
       <c r="D2" t="n">
         <v>141981.8776514384</v>
@@ -26423,7 +26423,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="D4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4924.360466203179</v>
+        <v>-17562.52262106365</v>
       </c>
       <c r="C6" t="n">
-        <v>63949.39611548666</v>
+        <v>51311.2339606261</v>
       </c>
       <c r="D6" t="n">
-        <v>63949.39611548669</v>
+        <v>51311.23396062619</v>
       </c>
       <c r="E6" t="n">
-        <v>97576.99611548666</v>
+        <v>84938.83396062619</v>
       </c>
       <c r="F6" t="n">
-        <v>97576.99611548666</v>
+        <v>84938.83396062616</v>
       </c>
       <c r="G6" t="n">
-        <v>91512.04675601269</v>
+        <v>79294.03613597222</v>
       </c>
       <c r="H6" t="n">
-        <v>101241.0897301798</v>
+        <v>89023.07911013931</v>
       </c>
       <c r="I6" t="n">
-        <v>101241.0897301798</v>
+        <v>89023.07911013934</v>
       </c>
       <c r="J6" t="n">
-        <v>47468.57883997035</v>
+        <v>35250.56821992991</v>
       </c>
       <c r="K6" t="n">
-        <v>101241.0897301798</v>
+        <v>89023.07911013934</v>
       </c>
       <c r="L6" t="n">
-        <v>101241.0897301798</v>
+        <v>89023.07911013934</v>
       </c>
       <c r="M6" t="n">
-        <v>101241.0897301798</v>
+        <v>89023.07911013931</v>
       </c>
       <c r="N6" t="n">
-        <v>101241.0897301798</v>
+        <v>89023.07911013934</v>
       </c>
       <c r="O6" t="n">
-        <v>97576.99611548663</v>
+        <v>84938.83396062613</v>
       </c>
       <c r="P6" t="n">
-        <v>97576.99611548669</v>
+        <v>84938.83396062616</v>
       </c>
     </row>
   </sheetData>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35190,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36205,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,10 +36448,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38031,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>91.61977832229879</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38113,7 +38113,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
